--- a/data/trans_dic/P24D-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P24D-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4290807404194315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2905306837349568</v>
+        <v>0.2905306837349569</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4150369409562572</v>
@@ -685,7 +685,7 @@
         <v>0.4551084217343574</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5063965835840023</v>
+        <v>0.5063965835840022</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3699337205068632</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2701299695196625</v>
+        <v>0.2741316838703094</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4411067480824716</v>
+        <v>0.4377117483787774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3841405428491561</v>
+        <v>0.384503839644754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2283782035648723</v>
+        <v>0.222100988546979</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3493887772316244</v>
+        <v>0.3502443876421694</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4900740450090177</v>
+        <v>0.4889935719383418</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4000079235727327</v>
+        <v>0.4011242310776203</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4314724281261914</v>
+        <v>0.4333320162392935</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3289820626870417</v>
+        <v>0.3192528546869431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4771892723050732</v>
+        <v>0.4769756231320208</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4057450675989228</v>
+        <v>0.4086998133401978</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3333760215848441</v>
+        <v>0.3326568860964053</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3916502474886061</v>
+        <v>0.3922227654064395</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5345948426829602</v>
+        <v>0.5277933915252329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4774335846479709</v>
+        <v>0.4757079327588224</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3600884330944496</v>
+        <v>0.3645776209968224</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4788180594766864</v>
+        <v>0.4840905279195546</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6006211977663249</v>
+        <v>0.5999678972504287</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.508512602904575</v>
+        <v>0.5015655326487309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5848624325055989</v>
+        <v>0.5792520652415911</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4120326196458396</v>
+        <v>0.4099150909793889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5447663214127829</v>
+        <v>0.5485732974020037</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4754937633097129</v>
+        <v>0.4785828462193</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4345089488314821</v>
+        <v>0.4392204761903997</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4339089850805066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3369659502633946</v>
+        <v>0.3369659502633945</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3296086106057847</v>
@@ -821,7 +821,7 @@
         <v>0.4351087652193017</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4161621510335506</v>
+        <v>0.4161621510335507</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3103394697703898</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2607707345413385</v>
+        <v>0.2585172106589188</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4182936291116612</v>
+        <v>0.4188049957838753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3799077914330898</v>
+        <v>0.3802981253832909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2782591739943879</v>
+        <v>0.269388761913734</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2743524730728328</v>
+        <v>0.2737082738029234</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4476621968623451</v>
+        <v>0.4486049081303449</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3733283902496679</v>
+        <v>0.377286799328664</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3563561905289008</v>
+        <v>0.3584153011249493</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2776625077009695</v>
+        <v>0.2764338712703149</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4443868467066798</v>
+        <v>0.447027790373038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3956928232083223</v>
+        <v>0.391994017332693</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3296168358750505</v>
+        <v>0.326573473521708</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3444347357154949</v>
+        <v>0.3445360266714661</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5182076301307516</v>
+        <v>0.5167941337428349</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.489695071906056</v>
+        <v>0.4933576219392186</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4089007669104842</v>
+        <v>0.3995908932555267</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3889062519220952</v>
+        <v>0.392842338883762</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5662414555432471</v>
+        <v>0.5772956504538803</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4957821763680562</v>
+        <v>0.4979034615371005</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4786211536617043</v>
+        <v>0.4776957825802841</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3457724961619397</v>
+        <v>0.3442208247827691</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5281165626466597</v>
+        <v>0.5249049772630517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4786610821078235</v>
+        <v>0.4759405812977775</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4224864275059406</v>
+        <v>0.4221099189863582</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4496597114840544</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4007518293587827</v>
+        <v>0.4007518293587826</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3013456704416436</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.247631136864136</v>
+        <v>0.2542653817069829</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3612321504825743</v>
+        <v>0.3529511181934308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3433710390916887</v>
+        <v>0.3400479970200983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3023569128602384</v>
+        <v>0.2977146386510333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2576258191217085</v>
+        <v>0.2562061880206446</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3479836144355425</v>
+        <v>0.3502184613158773</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3739938238475067</v>
+        <v>0.3738431320708832</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3390824515653994</v>
+        <v>0.3406381602005736</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2686462133976115</v>
+        <v>0.2666580552424962</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3732843254293407</v>
+        <v>0.3752899829310409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3766903202035507</v>
+        <v>0.374764337319305</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3315011156460542</v>
+        <v>0.3381506009353662</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3378716761290187</v>
+        <v>0.3391108676826703</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.481658011082414</v>
+        <v>0.483675851723677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4770003997870664</v>
+        <v>0.477854422774172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4417989107607241</v>
+        <v>0.4392945011048071</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3803457255191767</v>
+        <v>0.3754287036398939</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.488075205842628</v>
+        <v>0.4844490694861901</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5321518462965041</v>
+        <v>0.532745579134521</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4623884905591792</v>
+        <v>0.4659277882455508</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3393571165794196</v>
+        <v>0.3374534541551178</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4630554034872276</v>
+        <v>0.4628201879865872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4806916604059399</v>
+        <v>0.4780305159556291</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4275954094203979</v>
+        <v>0.4291653553513469</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2383121867059589</v>
+        <v>0.2308819964683069</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4022386324189385</v>
+        <v>0.4017471275008592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.378315361055358</v>
+        <v>0.3695547770137799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3625107718725031</v>
+        <v>0.3546005989233598</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2490443332584565</v>
+        <v>0.243619910974538</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4819573317533092</v>
+        <v>0.4851325086630723</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3173073762826655</v>
+        <v>0.3235579659261094</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3729798639238102</v>
+        <v>0.3804853749837041</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2589808344114889</v>
+        <v>0.2646759717995679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4659427642747443</v>
+        <v>0.4547462446738872</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3788205820029439</v>
+        <v>0.381676863202582</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3893679468891511</v>
+        <v>0.3854532727929523</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3914252729480778</v>
+        <v>0.3878593241622373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5594205684650253</v>
+        <v>0.5649623261471516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5597843582881775</v>
+        <v>0.5537183190259169</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5178000048336131</v>
+        <v>0.5105505837944677</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4322981163614369</v>
+        <v>0.4258935334576963</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.680437887114739</v>
+        <v>0.6761961700135957</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5210625384429152</v>
+        <v>0.5207896179449618</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5302064250936914</v>
+        <v>0.5249455617245551</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3750089803322441</v>
+        <v>0.3779992614046845</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5898523560720418</v>
+        <v>0.5853549807699711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5158531601880924</v>
+        <v>0.5234228203804725</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.500736403469454</v>
+        <v>0.4969967716598145</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4366160616216783</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3933992426395349</v>
+        <v>0.3933992426395348</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2810259283994386</v>
+        <v>0.2810756704846805</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4355621417926236</v>
+        <v>0.4371678258658994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4038213228275663</v>
+        <v>0.3983130547652642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.320958509570775</v>
+        <v>0.3221473110953689</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3162127673405606</v>
+        <v>0.3160823768839645</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4818070141078132</v>
+        <v>0.4786597042549914</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.412557431648723</v>
+        <v>0.4121665535479466</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4049255643344945</v>
+        <v>0.4070749112824751</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3015709832227945</v>
+        <v>0.3020762294722615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4629733576429822</v>
+        <v>0.4644438617854194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4141573113246094</v>
+        <v>0.4160106982342124</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3664138755982307</v>
+        <v>0.366556803378649</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3287276605684461</v>
+        <v>0.3316073696789604</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.496558405856997</v>
+        <v>0.4951516271171839</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.461024587011257</v>
+        <v>0.4612862400771322</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3929125610668885</v>
+        <v>0.3943778007264758</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3816317625878662</v>
+        <v>0.3791186292895415</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5493000305813847</v>
+        <v>0.5473097607475649</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4770242521610473</v>
+        <v>0.4753813519600802</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4765705663686217</v>
+        <v>0.4742628769149185</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3416717895013813</v>
+        <v>0.3410157815713052</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5061631342983048</v>
+        <v>0.5076094618441743</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4566708140542254</v>
+        <v>0.4597816155729423</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4180808556989899</v>
+        <v>0.4181340382427646</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>70972</v>
+        <v>72023</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>219259</v>
+        <v>217572</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>188893</v>
+        <v>189071</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43031</v>
+        <v>41848</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>77252</v>
+        <v>77441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>174543</v>
+        <v>174158</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>159357</v>
+        <v>159802</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>62399</v>
+        <v>62668</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>159174</v>
+        <v>154467</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>407149</v>
+        <v>406967</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>361159</v>
+        <v>363789</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>111027</v>
+        <v>110788</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>102899</v>
+        <v>103050</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>265729</v>
+        <v>262348</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>234767</v>
+        <v>233919</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67848</v>
+        <v>68694</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>105869</v>
+        <v>107035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>213915</v>
+        <v>213683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>202584</v>
+        <v>199816</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>84582</v>
+        <v>83771</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>199357</v>
+        <v>198332</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>464807</v>
+        <v>468055</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>423243</v>
+        <v>425993</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>144708</v>
+        <v>146278</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>128674</v>
+        <v>127562</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>169317</v>
+        <v>169524</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>123486</v>
+        <v>123612</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>68121</v>
+        <v>65950</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>75540</v>
+        <v>75363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>128890</v>
+        <v>129162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>97752</v>
+        <v>98788</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>77752</v>
+        <v>78201</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>213460</v>
+        <v>212515</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>307826</v>
+        <v>309656</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>232224</v>
+        <v>230053</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>152612</v>
+        <v>151203</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>169956</v>
+        <v>170006</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>209760</v>
+        <v>209188</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>159171</v>
+        <v>160361</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100104</v>
+        <v>97825</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>107081</v>
+        <v>108165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>163032</v>
+        <v>166214</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>129815</v>
+        <v>130370</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>104428</v>
+        <v>104227</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>265821</v>
+        <v>264628</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>365826</v>
+        <v>363601</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>280916</v>
+        <v>279320</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>195610</v>
+        <v>195436</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>112321</v>
+        <v>115330</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>102340</v>
+        <v>99994</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>76688</v>
+        <v>75946</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74492</v>
+        <v>73348</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62797</v>
+        <v>62451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76400</v>
+        <v>76890</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>61461</v>
+        <v>61436</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60227</v>
+        <v>60503</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>187336</v>
+        <v>185949</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>187709</v>
+        <v>188718</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>146034</v>
+        <v>145287</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>140553</v>
+        <v>143372</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>153252</v>
+        <v>153814</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>136458</v>
+        <v>137030</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>106533</v>
+        <v>106724</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>108846</v>
+        <v>108229</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>92710</v>
+        <v>91512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>107157</v>
+        <v>106361</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>87452</v>
+        <v>87550</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>82129</v>
+        <v>82757</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>236645</v>
+        <v>235317</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>232852</v>
+        <v>232733</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>186353</v>
+        <v>185321</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>181296</v>
+        <v>181961</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37611</v>
+        <v>36439</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>64438</v>
+        <v>64359</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48037</v>
+        <v>46925</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>73811</v>
+        <v>72200</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24561</v>
+        <v>24026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>49834</v>
+        <v>50163</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29047</v>
+        <v>29619</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>58283</v>
+        <v>59455</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66414</v>
+        <v>67875</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>122822</v>
+        <v>119870</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>82779</v>
+        <v>83403</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>140123</v>
+        <v>138714</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61776</v>
+        <v>61214</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>89619</v>
+        <v>90506</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71079</v>
+        <v>70309</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>105429</v>
+        <v>103953</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42634</v>
+        <v>42002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70357</v>
+        <v>69919</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47699</v>
+        <v>47674</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82851</v>
+        <v>82029</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>96169</v>
+        <v>96936</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>155484</v>
+        <v>154298</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>112723</v>
+        <v>114377</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>180201</v>
+        <v>178855</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>384324</v>
+        <v>384392</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>585985</v>
+        <v>588145</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>471293</v>
+        <v>464865</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>283475</v>
+        <v>284525</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>265245</v>
+        <v>265136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>465919</v>
+        <v>462876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>377944</v>
+        <v>377586</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>282106</v>
+        <v>283603</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>665384</v>
+        <v>666498</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1070570</v>
+        <v>1073970</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>862766</v>
+        <v>866627</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>578897</v>
+        <v>579122</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>449559</v>
+        <v>453498</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>668046</v>
+        <v>666154</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>538054</v>
+        <v>538360</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>347025</v>
+        <v>348320</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>320120</v>
+        <v>318012</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>531187</v>
+        <v>529262</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>437002</v>
+        <v>435497</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>332020</v>
+        <v>330412</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>753862</v>
+        <v>752414</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1170441</v>
+        <v>1173785</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>951330</v>
+        <v>957810</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>660525</v>
+        <v>660609</v>
       </c>
     </row>
     <row r="24">
